--- a/coordinate images/Coordinates.xlsx
+++ b/coordinate images/Coordinates.xlsx
@@ -356,7 +356,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -366,14 +366,14 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="C1">
-        <v>-0.17199999999999999</v>
+        <v>-0.2</v>
       </c>
       <c r="D1">
         <f>C1/B1</f>
-        <v>-5.8904109589041095E-4</v>
+        <v>-6.3492063492063492E-4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -381,14 +381,18 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="C2">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D4" si="0">C2/B2</f>
-        <v>6.1403508771929827E-4</v>
+        <v>4.7752808988764048E-4</v>
+      </c>
+      <c r="F2">
+        <f>(C3-C2)/(B3-B2)</f>
+        <v>5.7475083056478412E-4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -396,14 +400,14 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>507</v>
+        <v>657</v>
       </c>
       <c r="C3">
-        <v>0.307</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>6.0552268244575935E-4</v>
+        <v>5.2207001522070016E-4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -411,14 +415,14 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="C4">
-        <v>0.221</v>
+        <v>0.2</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>2.262026612077789E-4</v>
+        <v>2.0942408376963353E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -427,17 +431,17 @@
       </c>
       <c r="G6">
         <f>E7/E6</f>
-        <v>4.0225179119754352E-4</v>
+        <v>4.0941658137154559E-4</v>
       </c>
       <c r="I6">
         <f>977*G6-0.2</f>
-        <v>0.193</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E7">
         <f>SUM(ABS(C1), C4)</f>
-        <v>0.39300000000000002</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/coordinate images/Coordinates.xlsx
+++ b/coordinate images/Coordinates.xlsx
@@ -356,7 +356,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -366,14 +366,14 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C1">
         <v>-0.2</v>
       </c>
       <c r="D1">
         <f>C1/B1</f>
-        <v>-6.3492063492063492E-4</v>
+        <v>-6.3694267515923574E-4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -381,18 +381,18 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C2">
         <v>0.17</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D4" si="0">C2/B2</f>
-        <v>4.7752808988764048E-4</v>
+        <v>4.6448087431693994E-4</v>
       </c>
       <c r="F2">
         <f>(C3-C2)/(B3-B2)</f>
-        <v>5.7475083056478412E-4</v>
+        <v>6.091549295774648E-4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -400,14 +400,14 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="C3">
         <v>0.34300000000000003</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>5.2207001522070016E-4</v>
+        <v>5.2769230769230768E-4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -415,14 +415,14 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="C4">
         <v>0.2</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>2.0942408376963353E-4</v>
+        <v>2.0682523267838678E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
